--- a/test/documentation/01.02Test_integration_composant.xlsx
+++ b/test/documentation/01.02Test_integration_composant.xlsx
@@ -5,16 +5,15 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stace\OneDrive\Bureau\G7démineur\ISIM_G7_WeekProject\ficher de test\documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stace\OneDrive\Bureau\G7démineur\ISIM_G7_WeekProject\test\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DD11990-82A7-457B-8D22-22CD713347EC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED8206EB-77A6-40F4-9DC7-315630977391}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Case.py" sheetId="1" r:id="rId1"/>
-    <sheet name="Plateau.py" sheetId="2" r:id="rId2"/>
+    <sheet name="Modules" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,13 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="7">
-  <si>
-    <t>Module : Case.py</t>
-  </si>
-  <si>
-    <t>Resultat Test:</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
   <si>
     <t xml:space="preserve">Date : </t>
   </si>
@@ -47,13 +40,88 @@
   </si>
   <si>
     <t>Version 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Module : </t>
+  </si>
+  <si>
+    <t>Modules : showDemineur.py  /  Plateau.py</t>
+  </si>
+  <si>
+    <t>Date : 21-04-20</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Commentaire:
+-si on rentre les coordonnées d’une bombe, le jeu plante.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&gt; Mauvais nom de fonction appelé, corrigé</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+- si on rentre des coordonnées qui sorte du tableau, le jeu plante (normalement pas d’impact car jeu à la souris)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&gt; Pas de contrôle de saisie prévue. La fonction est là juste pour le test du démineur</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve"> OK</t>
+  </si>
+  <si>
+    <t>Modules :</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resultat Test:
+Description bug : 
+Traceback (most recent call last):
+  File " ISIM_G7_WeekProject/jeu/ShowDemineur.py", line 41, in &lt;module&gt;
+    j.Run()
+  File "ISIM_G7_WeekProject/jeu/ShowDemineur.py", line 15, in Run
+    self.parse_input(entree.strip().lower())
+  File "ISIM_G7_WeekProject/jeu/ShowDemineur.py", line 35, in parse_input
+    self.plateau.CreuserCase(L, C)
+  File "ISIM_G7_WeekProject\jeu\Plateau.py", line 160, in CreuserCase
+    self.CreuseCase(L, C)
+AttributeError: 'Plateau' object has no attribute 'CreuseCase'
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resultat Test:
+</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -61,13 +129,27 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -82,14 +164,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -369,91 +455,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A39334E0-DBD3-4B18-9008-28ABD1A07D52}">
+  <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:E5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="47.28515625" customWidth="1"/>
-    <col min="3" max="3" width="37.7109375" customWidth="1"/>
-    <col min="5" max="7" width="34.5703125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A39334E0-DBD3-4B18-9008-28ABD1A07D52}">
-  <dimension ref="A1:E5"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="42.85546875" customWidth="1"/>
+    <col min="1" max="1" width="69.85546875" customWidth="1"/>
+    <col min="2" max="2" width="3.140625" customWidth="1"/>
     <col min="3" max="3" width="44.7109375" customWidth="1"/>
     <col min="4" max="4" width="20.28515625" customWidth="1"/>
     <col min="5" max="5" width="59.85546875" customWidth="1"/>
@@ -461,60 +473,66 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
         <v>4</v>
-      </c>
-      <c r="C1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="209.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E2" t="s">
-        <v>0</v>
-      </c>
     </row>
-    <row r="3" spans="1:5" ht="123" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+    <row r="5" spans="1:5" s="1" customFormat="1" ht="105.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>1</v>
-      </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" s="2" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>3</v>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/test/documentation/01.02Test_integration_composant.xlsx
+++ b/test/documentation/01.02Test_integration_composant.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stace\OneDrive\Bureau\G7démineur\ISIM_G7_WeekProject\test\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED8206EB-77A6-40F4-9DC7-315630977391}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A41386FA-8F5C-4BC9-9B59-1C30434714B1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -459,7 +459,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
